--- a/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5240,7 +5241,6 @@
           <t>中银量化精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>93.76</t>
@@ -5272,7 +5272,6 @@
           <t>东吴悦秀纯债债券C</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>93.09</t>
@@ -5304,7 +5303,6 @@
           <t>长信双利优选混合E</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>86.69</t>
@@ -5320,6 +5318,1544 @@
       </c>
       <c r="H81" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6353</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0828</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8353</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7854</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501027</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰融信灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>46.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>42.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6861,4 +6862,1424 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3166</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7685</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6928</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5574</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4883</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8282,4 +8283,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8291,7 +8292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8302,17 +8303,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8322,14 +8343,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.43</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9694</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8338,14 +8381,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.68</v>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8354,14 +8419,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.75</v>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0670</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8370,13 +8457,2733 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0157</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0692</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0220</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0021</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8351</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7942</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6463</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4324</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3924</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3157</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>63.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010538</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰惠元混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>46</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11082,7 +11083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11093,17 +11094,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11113,14 +11134,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.33</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7787</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -11129,14 +11172,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.43</v>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -11145,14 +11210,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.68</v>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -11161,14 +11248,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.75</v>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -11177,13 +11286,2177 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7526</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6848</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6753</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6753</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6266</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5306</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4629</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4156</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4096</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4053</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>40.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>46</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13339,7 +13340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13350,17 +13351,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13370,14 +13391,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.29</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -13386,14 +13429,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>72</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.33</v>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2404</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -13402,14 +13467,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.43</v>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -13418,14 +13505,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.68</v>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7624</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -13434,14 +13543,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.75</v>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -13450,13 +13581,3367 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7368</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6736</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5298</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4727</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4247</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4148</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3717</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012308</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001265</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003754</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002055</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003755</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012309</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014953</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015589</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>80</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>46</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" t="n">
-        <v>18.92</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
-        <v>18.29</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>25.33</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
-        <v>10.43</v>
+        <v>25.33</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>11.68</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>14.75</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>80</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>46</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.32</v>
       </c>
     </row>
@@ -600,6 +617,3514 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6110</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5361</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5155</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5120</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4915</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3958</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3111</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012308</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信澳消费优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上银内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011775</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007387</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>融通通慧混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011776</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>格林鑫悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012309</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002612</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>融通通慧混合A/B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015753</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015767</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>67.98</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>57.23</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015589</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015754</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上银内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013056</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4067,7 +7592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6323,7 +9848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9113,7 +12638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10533,7 +14058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12071,7 +15596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15146,7 +18671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002372-伟星新材.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D2" t="n">
-        <v>14.53</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n">
-        <v>18.92</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>18.29</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>25.33</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>10.43</v>
+        <v>25.33</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>11.68</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>14.75</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1834 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>80</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>46</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7381</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>56.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2438,3320 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7154</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5836</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5805</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5214</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4084</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2523</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016117</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>贝莱德先进制造一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012308</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016570</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016553</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信澳消费优选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上银内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016118</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>贝莱德先进制造一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>72.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>72.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>32.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>016571</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012309</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>016554</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方鑫悦15个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>37.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>32.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015754</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>上银内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015807</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015753</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015589</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>016168</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4124,7 +9259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7592,7 +12727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9848,7 +14983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12638,7 +17773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14058,7 +19193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15596,7 +20731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18669,1808 +23804,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>400003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1535</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>090003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成蓝筹稳健混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9537</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7381</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>150968</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河研究精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5991</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>400001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方龙混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2621</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007549</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2299</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009937</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方欣益一年持有期偏债混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2052</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005305</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信合利混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>33.21</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1681</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004608</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长信乐信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>26.01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004138</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上银鑫达灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.36</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1359</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000520</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上银新兴价值成长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>84.47</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1324</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519644</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河智联主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1218</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>020018</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰金鹿混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1211</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009470</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东方欣利混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1124</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1086</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0998</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005943</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>工银瑞信聚福混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>29.89</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0922</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002000</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>工银瑞信新生利混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>29.42</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0847</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011437</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.75</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0820</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003308</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0803</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005944</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>工银瑞信聚福混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>29.89</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0751</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009999</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方中国红利混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>56.74</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0747</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009608</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0643</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004609</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>长信乐信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>26.01</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001850</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国泰安益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>21.32</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>512190</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>浙商汇金中证浙江凤凰行动50ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007994</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0306</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009938</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>东方欣益一年持有期偏债混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>26.31</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000804</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中信建投稳利混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005306</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>长信合利混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>33.21</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>007995</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009471</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>东方欣利混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>004252</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>国泰安益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>21.32</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>006844</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中信建投稳利混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>26.71</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>009609</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>广发中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>004790</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>519165</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>新华鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>23.19</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>004635</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>